--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H2">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I2">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J2">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N2">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O2">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P2">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q2">
-        <v>1.69418412728</v>
+        <v>2.086677408021</v>
       </c>
       <c r="R2">
-        <v>15.24765714552</v>
+        <v>18.780096672189</v>
       </c>
       <c r="S2">
-        <v>0.00147143021778283</v>
+        <v>0.001818279098649825</v>
       </c>
       <c r="T2">
-        <v>0.00147143021778283</v>
+        <v>0.001818279098649825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H3">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I3">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J3">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.24588</v>
       </c>
       <c r="O3">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P3">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q3">
-        <v>0.8574061867555555</v>
+        <v>1.01369781964</v>
       </c>
       <c r="R3">
-        <v>7.7166556808</v>
+        <v>9.12328037676</v>
       </c>
       <c r="S3">
-        <v>0.00074467311539011</v>
+        <v>0.0008833112155780633</v>
       </c>
       <c r="T3">
-        <v>0.0007446731153901102</v>
+        <v>0.0008833112155780633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H4">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I4">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J4">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N4">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O4">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P4">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q4">
-        <v>10.40279290797333</v>
+        <v>13.927867857607</v>
       </c>
       <c r="R4">
-        <v>93.62513617176</v>
+        <v>125.350810718463</v>
       </c>
       <c r="S4">
-        <v>0.009035017851751523</v>
+        <v>0.01213639967390142</v>
       </c>
       <c r="T4">
-        <v>0.009035017851751525</v>
+        <v>0.01213639967390142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H5">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I5">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J5">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N5">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O5">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P5">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q5">
-        <v>0.4760056764888889</v>
+        <v>0.390998631007</v>
       </c>
       <c r="R5">
-        <v>4.284051088399999</v>
+        <v>3.518987679063</v>
       </c>
       <c r="S5">
-        <v>0.0004134197251312998</v>
+        <v>0.0003407065393183999</v>
       </c>
       <c r="T5">
-        <v>0.0004134197251312999</v>
+        <v>0.0003407065393183999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H6">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I6">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J6">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N6">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O6">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P6">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q6">
-        <v>17.71773731112889</v>
+        <v>25.805172557841</v>
       </c>
       <c r="R6">
-        <v>159.45963580016</v>
+        <v>232.246553020569</v>
       </c>
       <c r="S6">
-        <v>0.01538818222325645</v>
+        <v>0.02248598931421513</v>
       </c>
       <c r="T6">
-        <v>0.01538818222325645</v>
+        <v>0.02248598931421512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H7">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I7">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J7">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N7">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O7">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P7">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q7">
-        <v>10.29825722193556</v>
+        <v>13.068067894225</v>
       </c>
       <c r="R7">
-        <v>92.68431499742</v>
+        <v>117.612611048025</v>
       </c>
       <c r="S7">
-        <v>0.008944226676934182</v>
+        <v>0.01138719124502402</v>
       </c>
       <c r="T7">
-        <v>0.008944226676934184</v>
+        <v>0.01138719124502402</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.804157</v>
       </c>
       <c r="I8">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J8">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N8">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O8">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P8">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q8">
-        <v>15.542623437156</v>
+        <v>16.191874580961</v>
       </c>
       <c r="R8">
-        <v>139.883610934404</v>
+        <v>145.726871228649</v>
       </c>
       <c r="S8">
-        <v>0.01349905563438869</v>
+        <v>0.01410919915332907</v>
       </c>
       <c r="T8">
-        <v>0.01349905563438869</v>
+        <v>0.01410919915332906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.804157</v>
       </c>
       <c r="I9">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J9">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>25.24588</v>
       </c>
       <c r="O9">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P9">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q9">
         <v>7.865934569239999</v>
@@ -1013,10 +1013,10 @@
         <v>70.79341112316</v>
       </c>
       <c r="S9">
-        <v>0.006831709511329532</v>
+        <v>0.006854180892369286</v>
       </c>
       <c r="T9">
-        <v>0.006831709511329534</v>
+        <v>0.006854180892369284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.804157</v>
       </c>
       <c r="I10">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J10">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N10">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O10">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P10">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q10">
-        <v>95.436316667028</v>
+        <v>108.075301272587</v>
       </c>
       <c r="R10">
-        <v>858.9268500032521</v>
+        <v>972.677711453283</v>
       </c>
       <c r="S10">
-        <v>0.08288820439087219</v>
+        <v>0.09417414528420011</v>
       </c>
       <c r="T10">
-        <v>0.0828882043908722</v>
+        <v>0.09417414528420009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.804157</v>
       </c>
       <c r="I11">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J11">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N11">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O11">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P11">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q11">
-        <v>4.36692615902</v>
+        <v>3.034010321987</v>
       </c>
       <c r="R11">
-        <v>39.30233543118</v>
+        <v>27.306092897883</v>
       </c>
       <c r="S11">
-        <v>0.003792756056288067</v>
+        <v>0.002643761576346769</v>
       </c>
       <c r="T11">
-        <v>0.003792756056288067</v>
+        <v>0.002643761576346768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.804157</v>
       </c>
       <c r="I12">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J12">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N12">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O12">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P12">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q12">
-        <v>162.544386263048</v>
+        <v>200.238961705581</v>
       </c>
       <c r="R12">
-        <v>1462.899476367432</v>
+        <v>1802.150655350229</v>
       </c>
       <c r="S12">
-        <v>0.1411728027828965</v>
+        <v>0.174483280168305</v>
       </c>
       <c r="T12">
-        <v>0.1411728027828965</v>
+        <v>0.1744832801683049</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.804157</v>
       </c>
       <c r="I13">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J13">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N13">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O13">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P13">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q13">
-        <v>94.47729528460101</v>
+        <v>101.403559335725</v>
       </c>
       <c r="R13">
-        <v>850.2956575614091</v>
+        <v>912.632034021525</v>
       </c>
       <c r="S13">
-        <v>0.08205527660050947</v>
+        <v>0.08836055432435608</v>
       </c>
       <c r="T13">
-        <v>0.08205527660050949</v>
+        <v>0.08836055432435605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3663483333333333</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H14">
-        <v>1.099045</v>
+        <v>1.148774</v>
       </c>
       <c r="I14">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J14">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N14">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O14">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P14">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q14">
-        <v>6.091685513860001</v>
+        <v>6.633296398835336</v>
       </c>
       <c r="R14">
-        <v>54.82516962474001</v>
+        <v>59.69966758951801</v>
       </c>
       <c r="S14">
-        <v>0.005290741424141628</v>
+        <v>0.005780090468603023</v>
       </c>
       <c r="T14">
-        <v>0.00529074142414163</v>
+        <v>0.005780090468603022</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3663483333333333</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H15">
-        <v>1.099045</v>
+        <v>1.148774</v>
       </c>
       <c r="I15">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J15">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.24588</v>
       </c>
       <c r="O15">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P15">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q15">
-        <v>3.082928687177778</v>
+        <v>3.222423394568889</v>
       </c>
       <c r="R15">
-        <v>27.7463581846</v>
+        <v>29.00181055112001</v>
       </c>
       <c r="S15">
-        <v>0.002677580527723364</v>
+        <v>0.002807940069136869</v>
       </c>
       <c r="T15">
-        <v>0.002677580527723365</v>
+        <v>0.002807940069136869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3663483333333333</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H16">
-        <v>1.099045</v>
+        <v>1.148774</v>
       </c>
       <c r="I16">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J16">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N16">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O16">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P16">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q16">
-        <v>37.40475538684667</v>
+        <v>44.27501603658956</v>
       </c>
       <c r="R16">
-        <v>336.64279848162</v>
+        <v>398.475144329306</v>
       </c>
       <c r="S16">
-        <v>0.0324867211767266</v>
+        <v>0.03858015424054777</v>
       </c>
       <c r="T16">
-        <v>0.03248672117672661</v>
+        <v>0.03858015424054777</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3663483333333333</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H17">
-        <v>1.099045</v>
+        <v>1.148774</v>
       </c>
       <c r="I17">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J17">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N17">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O17">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P17">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q17">
-        <v>1.711547663144444</v>
+        <v>1.242937600722889</v>
       </c>
       <c r="R17">
-        <v>15.4039289683</v>
+        <v>11.186438406506</v>
       </c>
       <c r="S17">
-        <v>0.001486510769505102</v>
+        <v>0.001083065092684248</v>
       </c>
       <c r="T17">
-        <v>0.001486510769505102</v>
+        <v>0.001083065092684248</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3663483333333333</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H18">
-        <v>1.099045</v>
+        <v>1.148774</v>
       </c>
       <c r="I18">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J18">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N18">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O18">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P18">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q18">
-        <v>63.70670222832445</v>
+        <v>82.03153853167534</v>
       </c>
       <c r="R18">
-        <v>573.3603200549201</v>
+        <v>738.283846785078</v>
       </c>
       <c r="S18">
-        <v>0.05533044798651733</v>
+        <v>0.07148025438378251</v>
       </c>
       <c r="T18">
-        <v>0.05533044798651734</v>
+        <v>0.0714802543837825</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3663483333333333</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H19">
-        <v>1.099045</v>
+        <v>1.148774</v>
       </c>
       <c r="I19">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J19">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N19">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O19">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P19">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q19">
-        <v>37.02888211896278</v>
+        <v>41.54181540917223</v>
       </c>
       <c r="R19">
-        <v>333.259939070665</v>
+        <v>373.8763386825501</v>
       </c>
       <c r="S19">
-        <v>0.03216026829860345</v>
+        <v>0.03619851079429855</v>
       </c>
       <c r="T19">
-        <v>0.03216026829860345</v>
+        <v>0.03619851079429855</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9796620000000001</v>
+        <v>0.588294</v>
       </c>
       <c r="H20">
-        <v>2.938986</v>
+        <v>1.764882</v>
       </c>
       <c r="I20">
-        <v>0.3461183391186837</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J20">
-        <v>0.3461183391186836</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N20">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O20">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P20">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q20">
-        <v>16.28994121408801</v>
+        <v>10.190851651386</v>
       </c>
       <c r="R20">
-        <v>146.609470926792</v>
+        <v>91.71766486247401</v>
       </c>
       <c r="S20">
-        <v>0.01414811493175649</v>
+        <v>0.008880056152392934</v>
       </c>
       <c r="T20">
-        <v>0.01414811493175649</v>
+        <v>0.008880056152392932</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9796620000000001</v>
+        <v>0.588294</v>
       </c>
       <c r="H21">
-        <v>2.938986</v>
+        <v>1.764882</v>
       </c>
       <c r="I21">
-        <v>0.3461183391186837</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J21">
-        <v>0.3461183391186836</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>25.24588</v>
       </c>
       <c r="O21">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P21">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q21">
-        <v>8.24414309752</v>
+        <v>4.95066657624</v>
       </c>
       <c r="R21">
-        <v>74.19728787768001</v>
+        <v>44.55599918616</v>
       </c>
       <c r="S21">
-        <v>0.007160190606255049</v>
+        <v>0.004313888445506613</v>
       </c>
       <c r="T21">
-        <v>0.007160190606255051</v>
+        <v>0.004313888445506613</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9796620000000001</v>
+        <v>0.588294</v>
       </c>
       <c r="H22">
-        <v>2.938986</v>
+        <v>1.764882</v>
       </c>
       <c r="I22">
-        <v>0.3461183391186837</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J22">
-        <v>0.3461183391186836</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N22">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O22">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P22">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q22">
-        <v>100.025069415144</v>
+        <v>68.020497376062</v>
       </c>
       <c r="R22">
-        <v>900.2256247362961</v>
+        <v>612.184476384558</v>
       </c>
       <c r="S22">
-        <v>0.08687362093845385</v>
+        <v>0.05927137955452196</v>
       </c>
       <c r="T22">
-        <v>0.08687362093845387</v>
+        <v>0.05927137955452196</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9796620000000001</v>
+        <v>0.588294</v>
       </c>
       <c r="H23">
-        <v>2.938986</v>
+        <v>1.764882</v>
       </c>
       <c r="I23">
-        <v>0.3461183391186837</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J23">
-        <v>0.3461183391186836</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N23">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O23">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P23">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q23">
-        <v>4.576895959960001</v>
+        <v>1.909547220462</v>
       </c>
       <c r="R23">
-        <v>41.19206363964</v>
+        <v>17.185924984158</v>
       </c>
       <c r="S23">
-        <v>0.003975118707991686</v>
+        <v>0.001663932232890682</v>
       </c>
       <c r="T23">
-        <v>0.003975118707991686</v>
+        <v>0.001663932232890682</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9796620000000001</v>
+        <v>0.588294</v>
       </c>
       <c r="H24">
-        <v>2.938986</v>
+        <v>1.764882</v>
       </c>
       <c r="I24">
-        <v>0.3461183391186837</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J24">
-        <v>0.3461183391186836</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N24">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O24">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P24">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q24">
-        <v>170.359817801104</v>
+        <v>126.026516779506</v>
       </c>
       <c r="R24">
-        <v>1533.238360209936</v>
+        <v>1134.238651015554</v>
       </c>
       <c r="S24">
-        <v>0.1479606494785042</v>
+        <v>0.1098163906193549</v>
       </c>
       <c r="T24">
-        <v>0.1479606494785042</v>
+        <v>0.1098163906193549</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9796620000000001</v>
+        <v>0.588294</v>
       </c>
       <c r="H25">
-        <v>2.938986</v>
+        <v>1.764882</v>
       </c>
       <c r="I25">
-        <v>0.3461183391186837</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J25">
-        <v>0.3461183391186836</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N25">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O25">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P25">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q25">
-        <v>99.01993652969803</v>
+        <v>63.82143246885</v>
       </c>
       <c r="R25">
-        <v>891.1794287672823</v>
+        <v>574.39289221965</v>
       </c>
       <c r="S25">
-        <v>0.08600064445572235</v>
+        <v>0.05561241821947851</v>
       </c>
       <c r="T25">
-        <v>0.08600064445572234</v>
+        <v>0.0556124182194785</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1566013333333333</v>
+        <v>0.2955663333333334</v>
       </c>
       <c r="H26">
-        <v>0.469804</v>
+        <v>0.8866990000000001</v>
       </c>
       <c r="I26">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="J26">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N26">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O26">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P26">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q26">
-        <v>2.603986389232001</v>
+        <v>5.120012538193668</v>
       </c>
       <c r="R26">
-        <v>23.435877503088</v>
+        <v>46.08011284374301</v>
       </c>
       <c r="S26">
-        <v>0.002261610292597149</v>
+        <v>0.00446145232954422</v>
       </c>
       <c r="T26">
-        <v>0.002261610292597149</v>
+        <v>0.004461452329544219</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1566013333333333</v>
+        <v>0.2955663333333334</v>
       </c>
       <c r="H27">
-        <v>0.469804</v>
+        <v>0.8866990000000001</v>
       </c>
       <c r="I27">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="J27">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>25.24588</v>
       </c>
       <c r="O27">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P27">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q27">
-        <v>1.317846156391111</v>
+        <v>2.487277394457778</v>
       </c>
       <c r="R27">
-        <v>11.86061540752</v>
+        <v>22.38549655012</v>
       </c>
       <c r="S27">
-        <v>0.001144573736513562</v>
+        <v>0.002167352021688855</v>
       </c>
       <c r="T27">
-        <v>0.001144573736513562</v>
+        <v>0.002167352021688855</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1566013333333333</v>
+        <v>0.2955663333333334</v>
       </c>
       <c r="H28">
-        <v>0.469804</v>
+        <v>0.8866990000000001</v>
       </c>
       <c r="I28">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="J28">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N28">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O28">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P28">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q28">
-        <v>15.98924857468267</v>
+        <v>34.17435670082011</v>
       </c>
       <c r="R28">
-        <v>143.903237172144</v>
+        <v>307.569210307381</v>
       </c>
       <c r="S28">
-        <v>0.01388695781857054</v>
+        <v>0.02977868944190891</v>
       </c>
       <c r="T28">
-        <v>0.01388695781857055</v>
+        <v>0.02977868944190891</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1566013333333333</v>
+        <v>0.2955663333333334</v>
       </c>
       <c r="H29">
-        <v>0.469804</v>
+        <v>0.8866990000000001</v>
       </c>
       <c r="I29">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="J29">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N29">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O29">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P29">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q29">
-        <v>0.7316278572177778</v>
+        <v>0.959380633286778</v>
       </c>
       <c r="R29">
-        <v>6.58465071496</v>
+        <v>8.634425699581001</v>
       </c>
       <c r="S29">
-        <v>0.0006354323121952012</v>
+        <v>0.0008359805624239668</v>
       </c>
       <c r="T29">
-        <v>0.0006354323121952013</v>
+        <v>0.0008359805624239667</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1566013333333333</v>
+        <v>0.2955663333333334</v>
       </c>
       <c r="H30">
-        <v>0.469804</v>
+        <v>0.8866990000000001</v>
       </c>
       <c r="I30">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="J30">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N30">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O30">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P30">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q30">
-        <v>27.23242772923378</v>
+        <v>63.31731322653367</v>
       </c>
       <c r="R30">
-        <v>245.091849563104</v>
+        <v>569.855819038803</v>
       </c>
       <c r="S30">
-        <v>0.02365186665319235</v>
+        <v>0.05517314117645905</v>
       </c>
       <c r="T30">
-        <v>0.02365186665319235</v>
+        <v>0.05517314117645904</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1566013333333333</v>
+        <v>0.2955663333333334</v>
       </c>
       <c r="H31">
-        <v>0.469804</v>
+        <v>0.8866990000000001</v>
       </c>
       <c r="I31">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="J31">
-        <v>0.05532785123553294</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N31">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O31">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P31">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q31">
-        <v>15.82857565888312</v>
+        <v>32.06469347451945</v>
       </c>
       <c r="R31">
-        <v>142.457180929948</v>
+        <v>288.582241270675</v>
       </c>
       <c r="S31">
-        <v>0.01374741042246413</v>
+        <v>0.02794038106955218</v>
       </c>
       <c r="T31">
-        <v>0.01374741042246413</v>
+        <v>0.02794038106955217</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2912076666666666</v>
+        <v>0.133784</v>
       </c>
       <c r="H32">
-        <v>0.8736229999999999</v>
+        <v>0.401352</v>
       </c>
       <c r="I32">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="J32">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N32">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O32">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P32">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q32">
-        <v>4.842237191084001</v>
+        <v>2.317502638696</v>
       </c>
       <c r="R32">
-        <v>43.580134719756</v>
+        <v>20.857523748264</v>
       </c>
       <c r="S32">
-        <v>0.004205572469901488</v>
+        <v>0.002019414497329118</v>
       </c>
       <c r="T32">
-        <v>0.004205572469901489</v>
+        <v>0.002019414497329117</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2912076666666666</v>
+        <v>0.133784</v>
       </c>
       <c r="H33">
-        <v>0.8736229999999999</v>
+        <v>0.401352</v>
       </c>
       <c r="I33">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="J33">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>25.24588</v>
       </c>
       <c r="O33">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P33">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q33">
-        <v>2.450597935915555</v>
+        <v>1.125831603306666</v>
       </c>
       <c r="R33">
-        <v>22.05538142324</v>
+        <v>10.13248442976</v>
       </c>
       <c r="S33">
-        <v>0.002128389586751469</v>
+        <v>0.0009810218220713738</v>
       </c>
       <c r="T33">
-        <v>0.00212838958675147</v>
+        <v>0.0009810218220713738</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2912076666666666</v>
+        <v>0.133784</v>
       </c>
       <c r="H34">
-        <v>0.8736229999999999</v>
+        <v>0.401352</v>
       </c>
       <c r="I34">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="J34">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N34">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O34">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P34">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q34">
-        <v>29.73277219342533</v>
+        <v>15.46854841449866</v>
       </c>
       <c r="R34">
-        <v>267.594949740828</v>
+        <v>139.216935730488</v>
       </c>
       <c r="S34">
-        <v>0.02582346201891226</v>
+        <v>0.01347891061666814</v>
       </c>
       <c r="T34">
-        <v>0.02582346201891226</v>
+        <v>0.01347891061666814</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2912076666666666</v>
+        <v>0.133784</v>
       </c>
       <c r="H35">
-        <v>0.8736229999999999</v>
+        <v>0.401352</v>
       </c>
       <c r="I35">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="J35">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N35">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O35">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P35">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q35">
-        <v>1.360496980668889</v>
+        <v>0.4342503328986667</v>
       </c>
       <c r="R35">
-        <v>12.24447282602</v>
+        <v>3.908252996088</v>
       </c>
       <c r="S35">
-        <v>0.001181616765453057</v>
+        <v>0.000378395002915289</v>
       </c>
       <c r="T35">
-        <v>0.001181616765453058</v>
+        <v>0.000378395002915289</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2912076666666666</v>
+        <v>0.133784</v>
       </c>
       <c r="H36">
-        <v>0.8736229999999999</v>
+        <v>0.401352</v>
       </c>
       <c r="I36">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="J36">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N36">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O36">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P36">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q36">
-        <v>50.64000138376088</v>
+        <v>28.65970334701599</v>
       </c>
       <c r="R36">
-        <v>455.7600124538479</v>
+        <v>257.937330123144</v>
       </c>
       <c r="S36">
-        <v>0.04398177687112468</v>
+        <v>0.02497335686343865</v>
       </c>
       <c r="T36">
-        <v>0.04398177687112469</v>
+        <v>0.02497335686343865</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2912076666666666</v>
+        <v>0.133784</v>
       </c>
       <c r="H37">
-        <v>0.8736229999999999</v>
+        <v>0.401352</v>
       </c>
       <c r="I37">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="J37">
-        <v>0.1028847846760351</v>
+        <v>0.05447792463963103</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N37">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O37">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P37">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q37">
-        <v>29.43399322449456</v>
+        <v>14.51363862526667</v>
       </c>
       <c r="R37">
-        <v>264.905939020451</v>
+        <v>130.6227476274</v>
       </c>
       <c r="S37">
-        <v>0.02556396696389214</v>
+        <v>0.01264682583720846</v>
       </c>
       <c r="T37">
-        <v>0.02556396696389214</v>
+        <v>0.01264682583720846</v>
       </c>
     </row>
   </sheetData>
